--- a/public/data/companiesXLS.xlsx
+++ b/public/data/companiesXLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akiil\gold-silver-analysis\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF4B98D-98C0-4038-A714-E00AA296708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E83DBD15-B379-4701-95C5-65DE4DC151B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13245" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{7B6C7B5C-DA64-4A82-9115-ABBF651DA2D2}"/>
   </bookViews>
@@ -20,275 +20,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="522">
-  <si>
-    <t>ticker</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1011">
   <si>
     <t>AAB.TO</t>
   </si>
   <si>
-    <t>Aberdeen International</t>
-  </si>
-  <si>
     <t>AAG.V</t>
   </si>
   <si>
-    <t>Aftermath Silver</t>
-  </si>
-  <si>
     <t>AAN.V</t>
   </si>
   <si>
-    <t>Aton Resources</t>
-  </si>
-  <si>
     <t>AAUC.TO</t>
   </si>
   <si>
-    <t>Allied Gold Corporation</t>
-  </si>
-  <si>
     <t>ABI.V</t>
   </si>
   <si>
-    <t>Abcourt Mines</t>
-  </si>
-  <si>
     <t>ABRA.TO</t>
   </si>
   <si>
-    <t>AbraSilver Resource Corp</t>
-  </si>
-  <si>
-    <t>ABRA.V</t>
-  </si>
-  <si>
     <t>ADY.V</t>
   </si>
   <si>
-    <t>Adyton Resources Corporation</t>
-  </si>
-  <si>
     <t>ADZ.V</t>
   </si>
   <si>
-    <t>Adamera Minerals Corp</t>
-  </si>
-  <si>
     <t>AE.V</t>
   </si>
   <si>
-    <t>American Eagle Gold Corp</t>
-  </si>
-  <si>
     <t>AEM.TO</t>
   </si>
   <si>
-    <t>Agnico Eagle Mines</t>
-  </si>
-  <si>
     <t>AERO.V</t>
   </si>
   <si>
-    <t>Aero Energy Limited</t>
-  </si>
-  <si>
-    <t>AG.V</t>
-  </si>
-  <si>
-    <t>FIRST MAJESTIC SILVER CORP</t>
-  </si>
-  <si>
     <t>AGA.V</t>
   </si>
   <si>
-    <t>Silver47 Exploration Corp</t>
-  </si>
-  <si>
     <t>AGAG.V</t>
   </si>
   <si>
-    <t>Argenta Silver Corp</t>
-  </si>
-  <si>
     <t>AGLD.V</t>
   </si>
   <si>
-    <t>Austral Gold Limited</t>
-  </si>
-  <si>
     <t>AGMR.V</t>
   </si>
   <si>
-    <t>Silver Mountain Resources</t>
-  </si>
-  <si>
     <t>AGX.V</t>
   </si>
   <si>
-    <t>Silver X Mining Corp</t>
-  </si>
-  <si>
     <t>ALEX.V</t>
   </si>
   <si>
-    <t>Alpha Exploration</t>
-  </si>
-  <si>
     <t>ALTA.V</t>
   </si>
   <si>
-    <t>Altamira Gold Corp</t>
-  </si>
-  <si>
     <t>AMC.TO</t>
   </si>
   <si>
-    <t>Arizona Metals Corp</t>
-  </si>
-  <si>
     <t>AMQ.CN</t>
   </si>
   <si>
-    <t>Abitibi Metals Corp</t>
-  </si>
-  <si>
     <t>AMRQ.V</t>
   </si>
   <si>
-    <t>Amaroq Minerals</t>
-  </si>
-  <si>
     <t>AMX.V</t>
   </si>
   <si>
-    <t>Amex Exploration</t>
-  </si>
-  <si>
     <t>ANK.V</t>
   </si>
   <si>
-    <t>Angkor Resources Corp</t>
-  </si>
-  <si>
     <t>ANTL.V</t>
   </si>
   <si>
-    <t>Antler Gold</t>
-  </si>
-  <si>
     <t>AOT.TO</t>
   </si>
   <si>
-    <t>Ascot Resources</t>
-  </si>
-  <si>
     <t>APGO.V</t>
   </si>
   <si>
-    <t>Apollo Silver Corp</t>
-  </si>
-  <si>
     <t>APM.TO</t>
   </si>
   <si>
-    <t>ANDEAN PRECIOUS METALS CORP</t>
-  </si>
-  <si>
     <t>ARIC.V</t>
   </si>
   <si>
-    <t>Awalé Resources Limited</t>
-  </si>
-  <si>
     <t>ARIS.TO</t>
   </si>
   <si>
-    <t>Aris Mining Corporation</t>
-  </si>
-  <si>
     <t>ARK.V</t>
   </si>
   <si>
-    <t>Arras Minerals Corp</t>
-  </si>
-  <si>
     <t>ARTG.V</t>
   </si>
   <si>
-    <t>Artemis Gold</t>
-  </si>
-  <si>
     <t>ARU.V</t>
   </si>
   <si>
-    <t>Aurania Resources</t>
-  </si>
-  <si>
     <t>ASE.CN</t>
   </si>
   <si>
-    <t>Asante Gold Corporation</t>
-  </si>
-  <si>
     <t>ASM.TO</t>
   </si>
   <si>
-    <t>Avino Silver &amp; Gold Mines</t>
-  </si>
-  <si>
     <t>ASTR.V</t>
   </si>
   <si>
-    <t>Astra Exploration</t>
-  </si>
-  <si>
     <t>ATHA.CN</t>
   </si>
   <si>
-    <t>Athena Gold Corporation</t>
-  </si>
-  <si>
     <t>AUAU.V</t>
   </si>
   <si>
-    <t>Allegiant Gold</t>
-  </si>
-  <si>
     <t>AUM.V</t>
   </si>
   <si>
-    <t>AuMEGA Metals</t>
-  </si>
-  <si>
     <t>AUMB.V</t>
   </si>
   <si>
-    <t>1911 Gold Corporation</t>
-  </si>
-  <si>
     <t>AUOZ.CN</t>
   </si>
   <si>
-    <t>Emperor Metals</t>
-  </si>
-  <si>
     <t>AUR.H.V</t>
   </si>
   <si>
-    <t>Aurora Royalties</t>
-  </si>
-  <si>
     <t>AXM.H.V</t>
   </si>
   <si>
-    <t>axmin</t>
-  </si>
-  <si>
     <t>AYA.TO</t>
   </si>
   <si>
@@ -298,51 +157,27 @@
     <t>AZM.V</t>
   </si>
   <si>
-    <t>Azimut Exploration</t>
-  </si>
-  <si>
     <t>AZS.V</t>
   </si>
   <si>
-    <t>Arizona Gold &amp; Silver</t>
-  </si>
-  <si>
     <t>AZT.V</t>
   </si>
   <si>
-    <t>Aztec Minerals Corp</t>
-  </si>
-  <si>
     <t>BAT.V</t>
   </si>
   <si>
-    <t>Batero Gold Corp</t>
-  </si>
-  <si>
     <t>BAU.V</t>
   </si>
   <si>
-    <t>Blue Star Gold Corp</t>
-  </si>
-  <si>
     <t>BBB.V</t>
   </si>
   <si>
-    <t>Brixton Metals Corporation</t>
-  </si>
-  <si>
     <t>BCM.V</t>
   </si>
   <si>
-    <t>Bear Creek Mining Corporation</t>
-  </si>
-  <si>
     <t>BEX.V</t>
   </si>
   <si>
-    <t>Benton Resources</t>
-  </si>
-  <si>
     <t>BGS</t>
   </si>
   <si>
@@ -352,57 +187,30 @@
     <t>BHS.V</t>
   </si>
   <si>
-    <t>Bayhorse Silver</t>
-  </si>
-  <si>
     <t>BIG.V</t>
   </si>
   <si>
-    <t>Hercules Metals</t>
-  </si>
-  <si>
     <t>BLLG.CN</t>
   </si>
   <si>
-    <t>Blue Lagoon Resources</t>
-  </si>
-  <si>
     <t>BMM.V</t>
   </si>
   <si>
-    <t>Black Mammoth Metals Corporation</t>
-  </si>
-  <si>
     <t>BOGO.V</t>
   </si>
   <si>
-    <t>Borealis Mining Company</t>
-  </si>
-  <si>
     <t>BRAU.V</t>
   </si>
   <si>
-    <t>Big Ridge Gold Corp</t>
-  </si>
-  <si>
     <t>BRAZ.CN</t>
   </si>
   <si>
-    <t>CanaryGoldCo</t>
-  </si>
-  <si>
     <t>BRC.V</t>
   </si>
   <si>
-    <t>BLACKROCK SILVER CORP</t>
-  </si>
-  <si>
     <t>BSX.TO</t>
   </si>
   <si>
-    <t>Belo Sun Mining Corp</t>
-  </si>
-  <si>
     <t>BTO.TO</t>
   </si>
   <si>
@@ -448,9 +256,6 @@
     <t>CKG.V</t>
   </si>
   <si>
-    <t>CLB.V</t>
-  </si>
-  <si>
     <t>CMB.V</t>
   </si>
   <si>
@@ -634,9 +439,6 @@
     <t>GDX.V</t>
   </si>
   <si>
-    <t>GEM.V</t>
-  </si>
-  <si>
     <t>GFG.V</t>
   </si>
   <si>
@@ -694,9 +496,6 @@
     <t>GRSL.V</t>
   </si>
   <si>
-    <t>GSH.V</t>
-  </si>
-  <si>
     <t>GSTM.V</t>
   </si>
   <si>
@@ -709,9 +508,6 @@
     <t>GUS.V</t>
   </si>
   <si>
-    <t>GWA.V</t>
-  </si>
-  <si>
     <t>GWM.V</t>
   </si>
   <si>
@@ -721,9 +517,6 @@
     <t>HAMR.CN</t>
   </si>
   <si>
-    <t>HIGH.V</t>
-  </si>
-  <si>
     <t>HML.CN</t>
   </si>
   <si>
@@ -766,9 +559,6 @@
     <t>JG.V</t>
   </si>
   <si>
-    <t>JUB.V</t>
-  </si>
-  <si>
     <t>JUGR.V</t>
   </si>
   <si>
@@ -847,9 +637,6 @@
     <t>LGD.TO</t>
   </si>
   <si>
-    <t>LGN.V</t>
-  </si>
-  <si>
     <t>LIO.V</t>
   </si>
   <si>
@@ -883,9 +670,6 @@
     <t>LUM.V</t>
   </si>
   <si>
-    <t>LVN.TO</t>
-  </si>
-  <si>
     <t>MAE.V</t>
   </si>
   <si>
@@ -1177,9 +961,6 @@
     <t>RGC.V</t>
   </si>
   <si>
-    <t>RGD.V</t>
-  </si>
-  <si>
     <t>RIO.V</t>
   </si>
   <si>
@@ -1381,9 +1162,6 @@
     <t>STU.V</t>
   </si>
   <si>
-    <t>SUG.V</t>
-  </si>
-  <si>
     <t>SUP.V</t>
   </si>
   <si>
@@ -1444,9 +1222,6 @@
     <t>TK.V</t>
   </si>
   <si>
-    <t>TM.TO</t>
-  </si>
-  <si>
     <t>TMQ.TO</t>
   </si>
   <si>
@@ -1586,6 +1361,1698 @@
   </si>
   <si>
     <t>ZAU.V</t>
+  </si>
+  <si>
+    <t>BGF.V</t>
+  </si>
+  <si>
+    <t>AGI.TO</t>
+  </si>
+  <si>
+    <t>ALDE.V</t>
+  </si>
+  <si>
+    <t>AWM.V</t>
+  </si>
+  <si>
+    <t>G.TO</t>
+  </si>
+  <si>
+    <t>AU.V</t>
+  </si>
+  <si>
+    <t>BZ.V</t>
+  </si>
+  <si>
+    <t>CGC.V</t>
+  </si>
+  <si>
+    <t>GLDC.V</t>
+  </si>
+  <si>
+    <t>CSR.CN</t>
+  </si>
+  <si>
+    <t>NFLD.CN</t>
+  </si>
+  <si>
+    <t>AG.TO</t>
+  </si>
+  <si>
+    <t>FF.TO</t>
+  </si>
+  <si>
+    <t>FNV.TO</t>
+  </si>
+  <si>
+    <t>FVL.TO</t>
+  </si>
+  <si>
+    <t>FMT.V</t>
+  </si>
+  <si>
+    <t>GTWO.TO</t>
+  </si>
+  <si>
+    <t>GTCH.CN</t>
+  </si>
+  <si>
+    <t>GBRC.V</t>
+  </si>
+  <si>
+    <t>GMTN.TO</t>
+  </si>
+  <si>
+    <t>GRC.TO</t>
+  </si>
+  <si>
+    <t>GCC.CN</t>
+  </si>
+  <si>
+    <t>GLM.CN</t>
+  </si>
+  <si>
+    <t>GLDN.V</t>
+  </si>
+  <si>
+    <t>GSHR.V</t>
+  </si>
+  <si>
+    <t>GHRT.V</t>
+  </si>
+  <si>
+    <t>FIN.V</t>
+  </si>
+  <si>
+    <t>IAMGOLD</t>
+  </si>
+  <si>
+    <t>IRV.CN</t>
+  </si>
+  <si>
+    <t>LVG.V</t>
+  </si>
+  <si>
+    <t>MTT.V</t>
+  </si>
+  <si>
+    <t>MFL.V</t>
+  </si>
+  <si>
+    <t>MEK.V</t>
+  </si>
+  <si>
+    <t>NCX.V</t>
+  </si>
+  <si>
+    <t>NVPC.CN</t>
+  </si>
+  <si>
+    <t>OMGA.CN</t>
+  </si>
+  <si>
+    <t>VEIN.V</t>
+  </si>
+  <si>
+    <t>PAU.CN</t>
+  </si>
+  <si>
+    <t>RGLD.CN</t>
+  </si>
+  <si>
+    <t>FISH.V</t>
+  </si>
+  <si>
+    <t>SSL.TO</t>
+  </si>
+  <si>
+    <t>SKE.TO</t>
+  </si>
+  <si>
+    <t>SGO.V</t>
+  </si>
+  <si>
+    <t>TM.V</t>
+  </si>
+  <si>
+    <t>TLG.TO</t>
+  </si>
+  <si>
+    <t>TRX.TO</t>
+  </si>
+  <si>
+    <t>VOXR.TO</t>
+  </si>
+  <si>
+    <t>WGLD.V</t>
+  </si>
+  <si>
+    <t>WGO.V</t>
+  </si>
+  <si>
+    <t>WAM.V</t>
+  </si>
+  <si>
+    <t>CLZ.V</t>
+  </si>
+  <si>
+    <t>SVRS.V</t>
+  </si>
+  <si>
+    <t>SURG.V</t>
+  </si>
+  <si>
+    <t>WLF.V</t>
+  </si>
+  <si>
+    <t>JUB.H</t>
+  </si>
+  <si>
+    <t>EDGM.CN</t>
+  </si>
+  <si>
+    <t>FIRST MAJESTIC SILVER</t>
+  </si>
+  <si>
+    <t>ANDEAN PRECIOUS METALS</t>
+  </si>
+  <si>
+    <t>BLACKROCK SILVER</t>
+  </si>
+  <si>
+    <t>ABERDEEN INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>AFTERMATH SILVER</t>
+  </si>
+  <si>
+    <t>ATON RESOURCES</t>
+  </si>
+  <si>
+    <t>ALLIED GOLD</t>
+  </si>
+  <si>
+    <t>ABCOURT MINES</t>
+  </si>
+  <si>
+    <t>ABRASILVER RESOURCE</t>
+  </si>
+  <si>
+    <t>ADYTON RESOURCES</t>
+  </si>
+  <si>
+    <t>ADAMERA MINERALS</t>
+  </si>
+  <si>
+    <t>AMERICAN EAGLE GOLD</t>
+  </si>
+  <si>
+    <t>AGNICO EAGLE MINES</t>
+  </si>
+  <si>
+    <t>AERO ENERGY</t>
+  </si>
+  <si>
+    <t>SILVER47 EXPLORATION</t>
+  </si>
+  <si>
+    <t>ARGENTA SILVER</t>
+  </si>
+  <si>
+    <t>ALAMOS GOLD</t>
+  </si>
+  <si>
+    <t>AUSTRAL GOLD LIMITED</t>
+  </si>
+  <si>
+    <t>SILVER MOUNTAIN RESOURCES</t>
+  </si>
+  <si>
+    <t>SILVER X MINING</t>
+  </si>
+  <si>
+    <t>ALDEBARAN RESOURCES</t>
+  </si>
+  <si>
+    <t>ALPHA EXPLORATION</t>
+  </si>
+  <si>
+    <t>ALTAMIRA GOLD</t>
+  </si>
+  <si>
+    <t>ARIZONA METALS</t>
+  </si>
+  <si>
+    <t>ABITIBI METALS</t>
+  </si>
+  <si>
+    <t>AMAROQ MINERALS</t>
+  </si>
+  <si>
+    <t>AMEX EXPLORATION</t>
+  </si>
+  <si>
+    <t>ANGKOR RESOURCES</t>
+  </si>
+  <si>
+    <t>ANTLER GOLD</t>
+  </si>
+  <si>
+    <t>ASCOT RESOURCES</t>
+  </si>
+  <si>
+    <t>APOLLO SILVER</t>
+  </si>
+  <si>
+    <t>AWALÉ RESOURCES LIMITED</t>
+  </si>
+  <si>
+    <t>ARIS MINING</t>
+  </si>
+  <si>
+    <t>ARRAS MINERALS</t>
+  </si>
+  <si>
+    <t>ARTEMIS GOLD</t>
+  </si>
+  <si>
+    <t>AURANIA RESOURCES</t>
+  </si>
+  <si>
+    <t>ASANTE GOLD</t>
+  </si>
+  <si>
+    <t>AVINO SILVER &amp; GOLD MINES</t>
+  </si>
+  <si>
+    <t>ASTRA EXPLORATION</t>
+  </si>
+  <si>
+    <t>ATHENA GOLD</t>
+  </si>
+  <si>
+    <t>AURION RESOURCES</t>
+  </si>
+  <si>
+    <t>ALLEGIANT GOLD</t>
+  </si>
+  <si>
+    <t>ANGEL WING METALS</t>
+  </si>
+  <si>
+    <t>AUMEGA METALS</t>
+  </si>
+  <si>
+    <t>1911 GOLD</t>
+  </si>
+  <si>
+    <t>EMPEROR METALS</t>
+  </si>
+  <si>
+    <t>AURORA ROYALTIES</t>
+  </si>
+  <si>
+    <t>AXMIN</t>
+  </si>
+  <si>
+    <t>AZIMUT EXPLORATION</t>
+  </si>
+  <si>
+    <t>ARIZONA GOLD &amp; SILVER</t>
+  </si>
+  <si>
+    <t>AZTEC MINERALS</t>
+  </si>
+  <si>
+    <t>BATERO GOLD</t>
+  </si>
+  <si>
+    <t>BLUE STAR GOLD</t>
+  </si>
+  <si>
+    <t>BRIXTON METALS</t>
+  </si>
+  <si>
+    <t>BEAR CREEK MINING</t>
+  </si>
+  <si>
+    <t>BENTON RESOURCES</t>
+  </si>
+  <si>
+    <t>BECAUSE GOLD FIELDS</t>
+  </si>
+  <si>
+    <t>BAYHORSE SILVER</t>
+  </si>
+  <si>
+    <t>HERCULES METALS</t>
+  </si>
+  <si>
+    <t>BLUE LAGOON RESOURCES</t>
+  </si>
+  <si>
+    <t>BLACK MAMMOTH METALS</t>
+  </si>
+  <si>
+    <t>BOREALIS MINING COMPANY</t>
+  </si>
+  <si>
+    <t>BIG RIDGE GOLD</t>
+  </si>
+  <si>
+    <t>CANARYGOLD</t>
+  </si>
+  <si>
+    <t>BELO SUN MINING</t>
+  </si>
+  <si>
+    <t>B2GOLD</t>
+  </si>
+  <si>
+    <t>BONTERRA RESOURCES</t>
+  </si>
+  <si>
+    <t>BANYAN GOLD</t>
+  </si>
+  <si>
+    <t>BENZ MINING</t>
+  </si>
+  <si>
+    <t>CANEX METALS</t>
+  </si>
+  <si>
+    <t>CAPITAN SILVER</t>
+  </si>
+  <si>
+    <t>COLIBRI RESOURCE</t>
+  </si>
+  <si>
+    <t>CABRAL GOLD</t>
+  </si>
+  <si>
+    <t>CORE ASSETS</t>
+  </si>
+  <si>
+    <t>CANAGOLD RESOURCES</t>
+  </si>
+  <si>
+    <t>CERRO DE PASCO RESOURCES</t>
+  </si>
+  <si>
+    <t>CERRADO GOLD</t>
+  </si>
+  <si>
+    <t>CARTIER RESOURCES</t>
+  </si>
+  <si>
+    <t>CENTERRA GOLD</t>
+  </si>
+  <si>
+    <t>CANADIAN GOLD</t>
+  </si>
+  <si>
+    <t>CHINA GOLD INTERNATIONAL RESOURCES</t>
+  </si>
+  <si>
+    <t>CHESAPEAKE GOLD</t>
+  </si>
+  <si>
+    <t>CANASIL RESOURCES</t>
+  </si>
+  <si>
+    <t>CMC METALS</t>
+  </si>
+  <si>
+    <t>CONDOR RESOURCES</t>
+  </si>
+  <si>
+    <t>COLLECTIVE MINING</t>
+  </si>
+  <si>
+    <t>COPAUR MINERALS</t>
+  </si>
+  <si>
+    <t>CARIBOO ROSE RESOURCES</t>
+  </si>
+  <si>
+    <t>CHURCHILL RESOURCES</t>
+  </si>
+  <si>
+    <t>COPPER STANDARD RESOURCES</t>
+  </si>
+  <si>
+    <t>CANTERRA MINERALS</t>
+  </si>
+  <si>
+    <t>CENTURION MINERALS</t>
+  </si>
+  <si>
+    <t>COMPASS GOLD</t>
+  </si>
+  <si>
+    <t>CALIBRE MINING</t>
+  </si>
+  <si>
+    <t>CYGNUS METALS</t>
+  </si>
+  <si>
+    <t>DESERT GOLD VENTURES</t>
+  </si>
+  <si>
+    <t>DEFIANCE SILVER</t>
+  </si>
+  <si>
+    <t>ALMADEX MINERALS</t>
+  </si>
+  <si>
+    <t>DELTA RESOURCES</t>
+  </si>
+  <si>
+    <t>DYNACOR GROUP</t>
+  </si>
+  <si>
+    <t>DUNDEE PRECIOUS METALS</t>
+  </si>
+  <si>
+    <t>DRYDEN GOLD</t>
+  </si>
+  <si>
+    <t>DISCOVERY SILVER</t>
+  </si>
+  <si>
+    <t>DOLLY VARDEN SILVER</t>
+  </si>
+  <si>
+    <t>DYNASTY GOLD</t>
+  </si>
+  <si>
+    <t>EAST AFRICA METALS</t>
+  </si>
+  <si>
+    <t>ENDURANCE GOLD</t>
+  </si>
+  <si>
+    <t>EDGEMONT GOLD</t>
+  </si>
+  <si>
+    <t>ENDEAVOUR SILVER</t>
+  </si>
+  <si>
+    <t>ELDORADO GOLD</t>
+  </si>
+  <si>
+    <t>ELEMENTAL ALTUS ROYALTIES</t>
+  </si>
+  <si>
+    <t>SILVER ELEPHANT MINING</t>
+  </si>
+  <si>
+    <t>ELORO RESOURCES</t>
+  </si>
+  <si>
+    <t>ELEVATION GOLD MINING</t>
+  </si>
+  <si>
+    <t>EMINENT GOLD</t>
+  </si>
+  <si>
+    <t>EMERITA RESOURCES</t>
+  </si>
+  <si>
+    <t>EMPRESS ROYALTY</t>
+  </si>
+  <si>
+    <t>EMX ROYALTY</t>
+  </si>
+  <si>
+    <t>ENDURO METALS</t>
+  </si>
+  <si>
+    <t>EAGLE PLAINS RESOURCES</t>
+  </si>
+  <si>
+    <t>EQUITY METALS</t>
+  </si>
+  <si>
+    <t>EQUINOX GOLD</t>
+  </si>
+  <si>
+    <t>EASTMAIN RESOURCES</t>
+  </si>
+  <si>
+    <t>ERDENE RESOURCE DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>ESKAY MINING</t>
+  </si>
+  <si>
+    <t>EURO SUN MINING</t>
+  </si>
+  <si>
+    <t>ETRUSCUS RESOURCES</t>
+  </si>
+  <si>
+    <t>EXCELLON RESOURCES</t>
+  </si>
+  <si>
+    <t>FIRST ANDES SILVER</t>
+  </si>
+  <si>
+    <t>FOUNDERS METALS</t>
+  </si>
+  <si>
+    <t>FIRST MINING GOLD</t>
+  </si>
+  <si>
+    <t>FIREFOX GOLD</t>
+  </si>
+  <si>
+    <t>GRIT METALS</t>
+  </si>
+  <si>
+    <t>SAILFISH ROYALTY</t>
+  </si>
+  <si>
+    <t>FOKUS MINING</t>
+  </si>
+  <si>
+    <t>FREEMAN GOLD</t>
+  </si>
+  <si>
+    <t>FORUM ENERGY METALS</t>
+  </si>
+  <si>
+    <t>FUERTE METALS</t>
+  </si>
+  <si>
+    <t>FOUR NINES GOLD</t>
+  </si>
+  <si>
+    <t>FIRST NORDIC METALS</t>
+  </si>
+  <si>
+    <t>FRANCO-NEVADA</t>
+  </si>
+  <si>
+    <t>FORTUNE BAY</t>
+  </si>
+  <si>
+    <t>FALCO RESOURCES</t>
+  </si>
+  <si>
+    <t>FREDONIA MINING</t>
+  </si>
+  <si>
+    <t>FORGE RESOURCES</t>
+  </si>
+  <si>
+    <t>FURY GOLD MINES</t>
+  </si>
+  <si>
+    <t>FORTUNA MINING</t>
+  </si>
+  <si>
+    <t>FREEGOLD VENTURES</t>
+  </si>
+  <si>
+    <t>GALANTAS GOLD</t>
+  </si>
+  <si>
+    <t>GALIANO GOLD</t>
+  </si>
+  <si>
+    <t>GOLD BULL RESOURCES</t>
+  </si>
+  <si>
+    <t>GOLDEX RESOURCES</t>
+  </si>
+  <si>
+    <t>GFG RESOURCES</t>
+  </si>
+  <si>
+    <t>AUGUSTA GOLD</t>
+  </si>
+  <si>
+    <t>GOLDEN CARIBOO RESOURCES</t>
+  </si>
+  <si>
+    <t>GREENHEART GOLD</t>
+  </si>
+  <si>
+    <t>GOLCONDA GOLD</t>
+  </si>
+  <si>
+    <t>GOLDGROUP MINING</t>
+  </si>
+  <si>
+    <t>GOGOLD RESOURCES</t>
+  </si>
+  <si>
+    <t>GGL RESOURCES</t>
+  </si>
+  <si>
+    <t>GRANADA GOLD MINE</t>
+  </si>
+  <si>
+    <t>GALLEON GOLD</t>
+  </si>
+  <si>
+    <t>CASSIAR GOLD</t>
+  </si>
+  <si>
+    <t>GOLDEN RIDGE RESOURCES</t>
+  </si>
+  <si>
+    <t>GOLDEN LAKE EXPLORATION</t>
+  </si>
+  <si>
+    <t>G MINING VENTURES</t>
+  </si>
+  <si>
+    <t>GOLD MOUNTAIN MINING</t>
+  </si>
+  <si>
+    <t>GMV MINERALS</t>
+  </si>
+  <si>
+    <t>GLOBEX MINING</t>
+  </si>
+  <si>
+    <t>GOLDEN GOLIATH RESOURCES</t>
+  </si>
+  <si>
+    <t>GOLDMINING</t>
+  </si>
+  <si>
+    <t>GOLIATH RESOURCES</t>
+  </si>
+  <si>
+    <t>GREAT PACIFIC GOLD</t>
+  </si>
+  <si>
+    <t>GRANDE PORTAGE RESOURCES</t>
+  </si>
+  <si>
+    <t>G2 GOLDFIELDS</t>
+  </si>
+  <si>
+    <t>GREAT QUEST GOLD</t>
+  </si>
+  <si>
+    <t>GOLDQUEST MINING</t>
+  </si>
+  <si>
+    <t>GOLD SPRINGS RESOURCE</t>
+  </si>
+  <si>
+    <t>GOLDEN ARROW RESOURCES</t>
+  </si>
+  <si>
+    <t>GR SILVER MINING</t>
+  </si>
+  <si>
+    <t>GOLDSHORE RESOURCES</t>
+  </si>
+  <si>
+    <t>GOLDSTORM METALS</t>
+  </si>
+  <si>
+    <t>GUANAJUATO SILVER COMPANY</t>
+  </si>
+  <si>
+    <t>GETCHELL GOLD</t>
+  </si>
+  <si>
+    <t>GUNPOINT EXPLORATION</t>
+  </si>
+  <si>
+    <t>ANGUS GOLD</t>
+  </si>
+  <si>
+    <t>GALWAY METALS</t>
+  </si>
+  <si>
+    <t>GOLD BASIN RESOURCES</t>
+  </si>
+  <si>
+    <t>SILVER HAMMER MINING</t>
+  </si>
+  <si>
+    <t>HERITAGE MINING</t>
+  </si>
+  <si>
+    <t>HIGHLANDER SILVER</t>
+  </si>
+  <si>
+    <t>HELIOSTAR METALS</t>
+  </si>
+  <si>
+    <t>GOLD HUNTER RESOURCES</t>
+  </si>
+  <si>
+    <t>HIGHWAY 50 GOLD</t>
+  </si>
+  <si>
+    <t>I-80 GOLD</t>
+  </si>
+  <si>
+    <t>INDEPENDENCE GOLD</t>
+  </si>
+  <si>
+    <t>IMPACT SILVER</t>
+  </si>
+  <si>
+    <t>IRVING RESOURCES</t>
+  </si>
+  <si>
+    <t>INTL. TOWER HILL MINES</t>
+  </si>
+  <si>
+    <t>INTEGRA RESOURCES</t>
+  </si>
+  <si>
+    <t>INVENTUS MINING</t>
+  </si>
+  <si>
+    <t>JAGUAR MINING</t>
+  </si>
+  <si>
+    <t>JAPAN GOLD</t>
+  </si>
+  <si>
+    <t>JUBILEE GOLD</t>
+  </si>
+  <si>
+    <t>JUGGERNAUT EXPLORATION</t>
+  </si>
+  <si>
+    <t>JZR GOLD</t>
+  </si>
+  <si>
+    <t>KINROSS GOLD</t>
+  </si>
+  <si>
+    <t>KALO GOLD</t>
+  </si>
+  <si>
+    <t>KAPA GOLD</t>
+  </si>
+  <si>
+    <t>KINGFISHER METALS</t>
+  </si>
+  <si>
+    <t>KLONDIKE GOLD</t>
+  </si>
+  <si>
+    <t>KESTREL GOLD</t>
+  </si>
+  <si>
+    <t>KENORLAND MINERALS</t>
+  </si>
+  <si>
+    <t>KERMODE RESOURCES</t>
+  </si>
+  <si>
+    <t>KINGSMEN RESOURCES</t>
+  </si>
+  <si>
+    <t>K92 MINING</t>
+  </si>
+  <si>
+    <t>KO GOLD</t>
+  </si>
+  <si>
+    <t>KORE MINING</t>
+  </si>
+  <si>
+    <t>KOBO RESOURCES</t>
+  </si>
+  <si>
+    <t>KLONDIKE SILVER</t>
+  </si>
+  <si>
+    <t>KOOTENAY SILVER</t>
+  </si>
+  <si>
+    <t>K2 GOLD</t>
+  </si>
+  <si>
+    <t>KUYA SILVER</t>
+  </si>
+  <si>
+    <t>LABRADOR GOLD</t>
+  </si>
+  <si>
+    <t>LEOCOR MINING</t>
+  </si>
+  <si>
+    <t>LEGACY GOLD MINES</t>
+  </si>
+  <si>
+    <t>LAFLEUR MINERALS</t>
+  </si>
+  <si>
+    <t>LAHONTAN GOLD</t>
+  </si>
+  <si>
+    <t>LAVRAS GOLD</t>
+  </si>
+  <si>
+    <t>LIBERTY GOLD</t>
+  </si>
+  <si>
+    <t>LION ONE METALS</t>
+  </si>
+  <si>
+    <t>LAURION MINERAL EXPLORATION</t>
+  </si>
+  <si>
+    <t>LINCOLN GOLD MINING</t>
+  </si>
+  <si>
+    <t>LONCOR GOLD</t>
+  </si>
+  <si>
+    <t>LODE GOLD RESOURCES</t>
+  </si>
+  <si>
+    <t>TOMAGOLD</t>
+  </si>
+  <si>
+    <t>LUPAKA GOLD</t>
+  </si>
+  <si>
+    <t>LODESTAR METALS</t>
+  </si>
+  <si>
+    <t>LUCA MINING</t>
+  </si>
+  <si>
+    <t>LUNDIN GOLD</t>
+  </si>
+  <si>
+    <t>LUMINA GOLD</t>
+  </si>
+  <si>
+    <t>LAKE VICTORIA GOLD</t>
+  </si>
+  <si>
+    <t>MARITIME RESOURCES</t>
+  </si>
+  <si>
+    <t>MAG SILVER</t>
+  </si>
+  <si>
+    <t>MINERA ALAMOS</t>
+  </si>
+  <si>
+    <t>MONTAGE GOLD</t>
+  </si>
+  <si>
+    <t>METALS CREEK RESOURCES</t>
+  </si>
+  <si>
+    <t>MEXICAN GOLD MINING</t>
+  </si>
+  <si>
+    <t>MAYFAIR GOLD</t>
+  </si>
+  <si>
+    <t>MAWSON FINLAND</t>
+  </si>
+  <si>
+    <t>MINAURUM GOLD</t>
+  </si>
+  <si>
+    <t>MAPLE GOLD MINES</t>
+  </si>
+  <si>
+    <t>MISTANGO RIVER RESOURCES</t>
+  </si>
+  <si>
+    <t>MAJESTIC GOLD</t>
+  </si>
+  <si>
+    <t>MAKO MINING</t>
+  </si>
+  <si>
+    <t>MCFARLANE LAKE MINING</t>
+  </si>
+  <si>
+    <t>MIATA METALS</t>
+  </si>
+  <si>
+    <t>METALLIC MINERALS</t>
+  </si>
+  <si>
+    <t>MONARCA MINERALS</t>
+  </si>
+  <si>
+    <t>MONUMENT MINING</t>
+  </si>
+  <si>
+    <t>MANDALAY RESOURCES</t>
+  </si>
+  <si>
+    <t>MERIDIAN MINING</t>
+  </si>
+  <si>
+    <t>MIRASOL RESOURCES</t>
+  </si>
+  <si>
+    <t>MINEROS</t>
+  </si>
+  <si>
+    <t>MITHRIL SILVER AND GOLD</t>
+  </si>
+  <si>
+    <t>MINSUD RESOURCES</t>
+  </si>
+  <si>
+    <t>MINCO SILVER</t>
+  </si>
+  <si>
+    <t>METALLA ROYALTY &amp; STREAMING</t>
+  </si>
+  <si>
+    <t>METALLIS RESOURCES</t>
+  </si>
+  <si>
+    <t>MAGNA TERRA MINERALS</t>
+  </si>
+  <si>
+    <t>MUNDORO</t>
+  </si>
+  <si>
+    <t>MCEWEN MINING</t>
+  </si>
+  <si>
+    <t>NEVGOLD</t>
+  </si>
+  <si>
+    <t>NEW BREAK RESOURCES</t>
+  </si>
+  <si>
+    <t>NEWCORE GOLD</t>
+  </si>
+  <si>
+    <t>NORTHISLE COPPER AND GOLD</t>
+  </si>
+  <si>
+    <t>NORTHERN DYNASTY MINERALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVADA SUNRISE </t>
+  </si>
+  <si>
+    <t>NEXGOLD MINING</t>
+  </si>
+  <si>
+    <t>NEW FOUND GOLD</t>
+  </si>
+  <si>
+    <t>NOVAGOLD RESOURCES</t>
+  </si>
+  <si>
+    <t>NEW GOLD</t>
+  </si>
+  <si>
+    <t>NGEX MINERALS</t>
+  </si>
+  <si>
+    <t>SURGE BATTERY METALS</t>
+  </si>
+  <si>
+    <t>NICOLA MINING</t>
+  </si>
+  <si>
+    <t>NEVADA KING GOLD</t>
+  </si>
+  <si>
+    <t>EXPLOITS DISCOVERY</t>
+  </si>
+  <si>
+    <t>NORTHERN LION GOLD</t>
+  </si>
+  <si>
+    <t>NORSEMONT MINING</t>
+  </si>
+  <si>
+    <t>NORTH PEAK RESOURCES</t>
+  </si>
+  <si>
+    <t>NATIONS ROYALTY</t>
+  </si>
+  <si>
+    <t>NORTHSTAR GOLD</t>
+  </si>
+  <si>
+    <t>NORD PRECIOUS METALS</t>
+  </si>
+  <si>
+    <t>NEW PACIFIC METALS</t>
+  </si>
+  <si>
+    <t>NOVO RESOURCES</t>
+  </si>
+  <si>
+    <t>NOVA PACIFIC METALS</t>
+  </si>
+  <si>
+    <t>OUTCROP SILVER</t>
+  </si>
+  <si>
+    <t>OROCO RESOURCE</t>
+  </si>
+  <si>
+    <t>OSISKO DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>OCEANAGOLD</t>
+  </si>
+  <si>
+    <t>OROGEN ROYALTIES</t>
+  </si>
+  <si>
+    <t>O3 MINING</t>
+  </si>
+  <si>
+    <t>ORLA MINING</t>
+  </si>
+  <si>
+    <t>OMAI GOLD MINES</t>
+  </si>
+  <si>
+    <t>OMEGA PACIFIC RESOURCES</t>
+  </si>
+  <si>
+    <t>OROSUR MINING</t>
+  </si>
+  <si>
+    <t>OMINECA MINING</t>
+  </si>
+  <si>
+    <t>ONGOLD RESOURCES</t>
+  </si>
+  <si>
+    <t>ONYX GOLD</t>
+  </si>
+  <si>
+    <t>OPAWICA EXPLORATIONS</t>
+  </si>
+  <si>
+    <t>OSISKO GOLD ROYALTIES</t>
+  </si>
+  <si>
+    <t>AURA MINERALS</t>
+  </si>
+  <si>
+    <t>OREZONE GOLD</t>
+  </si>
+  <si>
+    <t>ORVANA MINERALS</t>
+  </si>
+  <si>
+    <t>VALKEA RESOURCES</t>
+  </si>
+  <si>
+    <t>PALAMINA</t>
+  </si>
+  <si>
+    <t>PAN AMERICAN SILVER</t>
+  </si>
+  <si>
+    <t>PROVENANCE GOLD</t>
+  </si>
+  <si>
+    <t>PACIFIC RIDGE</t>
+  </si>
+  <si>
+    <t>PLATO GOLD</t>
+  </si>
+  <si>
+    <t>PATAGONIA GOLD</t>
+  </si>
+  <si>
+    <t>P2 GOLD</t>
+  </si>
+  <si>
+    <t>PROSPER GOLD</t>
+  </si>
+  <si>
+    <t>PJX RESOURCES</t>
+  </si>
+  <si>
+    <t>PLAYFAIR MINING</t>
+  </si>
+  <si>
+    <t>PANTERA SILVER</t>
+  </si>
+  <si>
+    <t>PROSPECTOR METALS</t>
+  </si>
+  <si>
+    <t>PPX MINING</t>
+  </si>
+  <si>
+    <t>PROBE GOLD</t>
+  </si>
+  <si>
+    <t>PRECIPITATE GOLD</t>
+  </si>
+  <si>
+    <t>PRISMO METALS</t>
+  </si>
+  <si>
+    <t>PERSEUS MINING</t>
+  </si>
+  <si>
+    <t>PRIME MINING</t>
+  </si>
+  <si>
+    <t>PUMA EXPLORATION</t>
+  </si>
+  <si>
+    <t>PELANGIO EXPLORATION</t>
+  </si>
+  <si>
+    <t>QUIMBAYA GOLD</t>
+  </si>
+  <si>
+    <t>QUARTZ MOUNTAIN RESOURCES</t>
+  </si>
+  <si>
+    <t>RENEGADE GOLD</t>
+  </si>
+  <si>
+    <t>RAMP METALS</t>
+  </si>
+  <si>
+    <t>ROBEX RESOURCES</t>
+  </si>
+  <si>
+    <t>RIDGELINE MINERALS</t>
+  </si>
+  <si>
+    <t>RADISSON MINING</t>
+  </si>
+  <si>
+    <t>RADIUS GOLD</t>
+  </si>
+  <si>
+    <t>OREX MINERALS</t>
+  </si>
+  <si>
+    <t>ROMIOS GOLD RESOURCES</t>
+  </si>
+  <si>
+    <t>RELEVANT GOLD</t>
+  </si>
+  <si>
+    <t>RED LAKE GOLD</t>
+  </si>
+  <si>
+    <t>RIO2</t>
+  </si>
+  <si>
+    <t>ROCKHAVEN RESOURCES</t>
+  </si>
+  <si>
+    <t>ROKMASTER RESOURCES</t>
+  </si>
+  <si>
+    <t>RILEY GOLD</t>
+  </si>
+  <si>
+    <t>EROS RESOURCES</t>
+  </si>
+  <si>
+    <t>ROSCAN GOLD</t>
+  </si>
+  <si>
+    <t>CANSTAR RESOURCES</t>
+  </si>
+  <si>
+    <t>RED PINE EXPLORATION</t>
+  </si>
+  <si>
+    <t>RECHARGE RESOURCES</t>
+  </si>
+  <si>
+    <t>RIVERSIDE RESOURCES</t>
+  </si>
+  <si>
+    <t>ROCKY SHORE GOLD</t>
+  </si>
+  <si>
+    <t>REYNA SILVER</t>
+  </si>
+  <si>
+    <t>RESOURO STRATEGIC METALS</t>
+  </si>
+  <si>
+    <t>REGENCY SILVER</t>
+  </si>
+  <si>
+    <t>RTG MINING</t>
+  </si>
+  <si>
+    <t>RUA GOLD</t>
+  </si>
+  <si>
+    <t>RUGBY RESOURCES</t>
+  </si>
+  <si>
+    <t>RUPERT RESOURCES</t>
+  </si>
+  <si>
+    <t>CAROLINA RUSH</t>
+  </si>
+  <si>
+    <t>REVIVAL GOLD</t>
+  </si>
+  <si>
+    <t>RHYOLITE RESOURCES</t>
+  </si>
+  <si>
+    <t>ROYAL ROAD MINERALS</t>
+  </si>
+  <si>
+    <t>STERLING METALS</t>
+  </si>
+  <si>
+    <t>STARCORE INTERNATIONAL MINES</t>
+  </si>
+  <si>
+    <t>SANU GOLD</t>
+  </si>
+  <si>
+    <t>SILVER BULLET MINES</t>
+  </si>
+  <si>
+    <t>SCOTTIE RESOURCES</t>
+  </si>
+  <si>
+    <t>SANTACRUZ SILVER</t>
+  </si>
+  <si>
+    <t>STROUD RESOURCES</t>
+  </si>
+  <si>
+    <t>SEABRIDGE GOLD</t>
+  </si>
+  <si>
+    <t>SERRA ENERGY METALS</t>
+  </si>
+  <si>
+    <t>SOLSTICE GOLD</t>
+  </si>
+  <si>
+    <t>SNOWLINE GOLD</t>
+  </si>
+  <si>
+    <t>SABRE GOLD MINES</t>
+  </si>
+  <si>
+    <t>SONORO GOLD</t>
+  </si>
+  <si>
+    <t>SCORPIO GOLD</t>
+  </si>
+  <si>
+    <t>SIGNATURE RESOURCES</t>
+  </si>
+  <si>
+    <t>SEGO RESOURCES</t>
+  </si>
+  <si>
+    <t>HOMELAND NICKEL</t>
+  </si>
+  <si>
+    <t>SOKOMAN MINERALS</t>
+  </si>
+  <si>
+    <t>SITKA GOLD</t>
+  </si>
+  <si>
+    <t>SILVERCREST METALS</t>
+  </si>
+  <si>
+    <t>SILVER VALLEY METALS</t>
+  </si>
+  <si>
+    <t>SKEENA GOLD &amp; SILVER</t>
+  </si>
+  <si>
+    <t>STRIKEPOINT GOLD</t>
+  </si>
+  <si>
+    <t>STANDARD LITHIUM</t>
+  </si>
+  <si>
+    <t>SOLITARIO RESOURCES</t>
+  </si>
+  <si>
+    <t>SILVER DOLLAR RESOURCES</t>
+  </si>
+  <si>
+    <t>SILVER TIGER METALS</t>
+  </si>
+  <si>
+    <t>SIERRA MADRE GOLD AND SILVER</t>
+  </si>
+  <si>
+    <t>SUN SUMMIT MINERALS</t>
+  </si>
+  <si>
+    <t>SIERRA METALS</t>
+  </si>
+  <si>
+    <t>SILVER NORTH RESOURCES</t>
+  </si>
+  <si>
+    <t>SILVER RANGE RESOURCES</t>
+  </si>
+  <si>
+    <t>SIRIOS RESOURCES</t>
+  </si>
+  <si>
+    <t>SOMA GOLD</t>
+  </si>
+  <si>
+    <t>SPANISH MOUNTAIN GOLD</t>
+  </si>
+  <si>
+    <t>SOUTH PACIFIC METALS</t>
+  </si>
+  <si>
+    <t>STELLAR AFRICAGOLD</t>
+  </si>
+  <si>
+    <t>STAKEHOLDER GOLD</t>
+  </si>
+  <si>
+    <t>SALAZAR RESOURCES</t>
+  </si>
+  <si>
+    <t>SANDSTORM GOLD ROYALTIES</t>
+  </si>
+  <si>
+    <t>SSR MINING</t>
+  </si>
+  <si>
+    <t>SOUTHERN SILVER EXPLORATION</t>
+  </si>
+  <si>
+    <t>SUMMA SILVER</t>
+  </si>
+  <si>
+    <t>STEPPE GOLD</t>
+  </si>
+  <si>
+    <t>STLLR GOLD</t>
+  </si>
+  <si>
+    <t>STAR ROYALTIES</t>
+  </si>
+  <si>
+    <t>SOUTH STAR BATTERY METALS</t>
+  </si>
+  <si>
+    <t>STUHINI EXPLORATION</t>
+  </si>
+  <si>
+    <t>NORTHERN SUPERIOR RESOURCES</t>
+  </si>
+  <si>
+    <t>SURGE COPPER</t>
+  </si>
+  <si>
+    <t>SILVER ONE RESOURCES</t>
+  </si>
+  <si>
+    <t>SILVERCORP METALS</t>
+  </si>
+  <si>
+    <t>SILVER STORM MINING</t>
+  </si>
+  <si>
+    <t>SARAMA RESOURCES</t>
+  </si>
+  <si>
+    <t>SILVER WOLF EXPLORATION</t>
+  </si>
+  <si>
+    <t>SOUTHERN CROSS GOLD</t>
+  </si>
+  <si>
+    <t>TAJIRI RESOURCES</t>
+  </si>
+  <si>
+    <t>THESIS GOLD</t>
+  </si>
+  <si>
+    <t>TRAILBREAKER RESOURCES</t>
+  </si>
+  <si>
+    <t>TURMALINA METALS</t>
+  </si>
+  <si>
+    <t>TRANSATLANTIC MINING</t>
+  </si>
+  <si>
+    <t>TDG GOLD</t>
+  </si>
+  <si>
+    <t>TECTONIC METALS</t>
+  </si>
+  <si>
+    <t>TERRA BALCANICA RESOURCES</t>
+  </si>
+  <si>
+    <t>TRIPLE FLAG PRECIOUS METALS</t>
+  </si>
+  <si>
+    <t>TRIFECTA GOLD</t>
+  </si>
+  <si>
+    <t>THUNDER GOLD</t>
+  </si>
+  <si>
+    <t>THOR EXPLORATIONS</t>
+  </si>
+  <si>
+    <t>TINCORP METALS</t>
+  </si>
+  <si>
+    <t>TINKA RESOURCES</t>
+  </si>
+  <si>
+    <t>TROILUS GOLD</t>
+  </si>
+  <si>
+    <t>TRISTAR GOLD</t>
+  </si>
+  <si>
+    <t>TRIGON METALS</t>
+  </si>
+  <si>
+    <t>TRILOGY METALS</t>
+  </si>
+  <si>
+    <t>TNR GOLD</t>
+  </si>
+  <si>
+    <t>TOCVAN VENTURES</t>
+  </si>
+  <si>
+    <t>TORQ RESOURCES</t>
+  </si>
+  <si>
+    <t>TARANIS RESOURCES</t>
+  </si>
+  <si>
+    <t>TRX GOLD</t>
+  </si>
+  <si>
+    <t>TALISKER RESOURCES</t>
+  </si>
+  <si>
+    <t>TIER ONE SILVER</t>
+  </si>
+  <si>
+    <t>TUDOR GOLD</t>
+  </si>
+  <si>
+    <t>HONEY BADGER SILVER</t>
+  </si>
+  <si>
+    <t>TEUTON RESOURCES</t>
+  </si>
+  <si>
+    <t>TOWER RESOURCES</t>
+  </si>
+  <si>
+    <t>TOREX GOLD RESOURCES</t>
+  </si>
+  <si>
+    <t>UNIGOLD</t>
+  </si>
+  <si>
+    <t>AMERICAS GOLD AND SILVER</t>
+  </si>
+  <si>
+    <t>AMERICAN PACIFIC MINING</t>
+  </si>
+  <si>
+    <t>VIVA GOLD</t>
+  </si>
+  <si>
+    <t>PASOFINO GOLD</t>
+  </si>
+  <si>
+    <t>VOLCANIC GOLD MINES</t>
+  </si>
+  <si>
+    <t>VICTORIA GOLD</t>
+  </si>
+  <si>
+    <t>VIOR</t>
+  </si>
+  <si>
+    <t>SILVER VIPER MINERALS</t>
+  </si>
+  <si>
+    <t>VELOCITY MINERALS</t>
+  </si>
+  <si>
+    <t>VISCOUNT MINING</t>
+  </si>
+  <si>
+    <t>VOX ROYALTY</t>
+  </si>
+  <si>
+    <t>VIZSLA ROYALTIES</t>
+  </si>
+  <si>
+    <t>VVC EXPLORATION</t>
+  </si>
+  <si>
+    <t>VIZSLA SILVER</t>
+  </si>
+  <si>
+    <t>WESTERN ALASKA MINERALS</t>
+  </si>
+  <si>
+    <t>WESDOME GOLD MINES</t>
+  </si>
+  <si>
+    <t>WESTERN EXPLORATION</t>
+  </si>
+  <si>
+    <t>WESTWARD GOLD</t>
+  </si>
+  <si>
+    <t>WESCAN GOLDFIELDS</t>
+  </si>
+  <si>
+    <t>WESTERN GOLD EXPLORATION</t>
+  </si>
+  <si>
+    <t>WHITE GOLD</t>
+  </si>
+  <si>
+    <t>WESTGOLD RESOURCES</t>
+  </si>
+  <si>
+    <t>WESTHAVEN GOLD</t>
+  </si>
+  <si>
+    <t>WEST HIGH YIELD RESOURCES</t>
+  </si>
+  <si>
+    <t>WOLFDEN RESOURCES</t>
+  </si>
+  <si>
+    <t>WALLBRIDGE MINING</t>
+  </si>
+  <si>
+    <t>WEST POINT GOLD</t>
+  </si>
+  <si>
+    <t>WHEATON PRECIOUS METALS</t>
+  </si>
+  <si>
+    <t>WEST RED LAKE GOLD</t>
+  </si>
+  <si>
+    <t>WESTERN COPPER AND GOLD</t>
+  </si>
+  <si>
+    <t>WALKER RIVER RESOURCES</t>
+  </si>
+  <si>
+    <t>WEST VAULT MINING</t>
+  </si>
+  <si>
+    <t>XIMEN MINING</t>
+  </si>
+  <si>
+    <t>XTRA-GOLD RESOURCES</t>
+  </si>
+  <si>
+    <t>TRANSITION METALS</t>
+  </si>
+  <si>
+    <t>GOLD TERRA RESOURCE</t>
+  </si>
+  <si>
+    <t>YORBEAU RESOURCES</t>
+  </si>
+  <si>
+    <t>ZACATECAS SILVER</t>
+  </si>
+  <si>
+    <t>ZODIAC GOLD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>NAMEALT</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>GUANAJUATO SILVER</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL TOWER HILL MINES</t>
+  </si>
+  <si>
+    <t>JUBILEE GOLD EXPLORATION</t>
+  </si>
+  <si>
+    <t>LINCOLN MINING</t>
+  </si>
+  <si>
+    <t>MUNDORO CAPITAL</t>
+  </si>
+  <si>
+    <t>RUGBY MINING</t>
+  </si>
+  <si>
+    <t>SKEENA RESOURCES</t>
+  </si>
+  <si>
+    <t>STELLAR PACIFIC VENTURES</t>
+  </si>
+  <si>
+    <t>STONESHIELD CAPITAL</t>
+  </si>
+  <si>
+    <t>TICKER</t>
   </si>
 </sst>
 </file>
@@ -2069,8 +3536,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2446,2505 +3914,5545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F7CE54-A8C9-4330-AF51-6C4457901ED7}">
-  <dimension ref="A1:B459"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B11" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B14" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B15" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B17" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B18" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B21" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B23" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B24" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B25" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B26" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B27" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B28" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B29" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B30" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B31" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B32" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B33" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B34" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B35" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B36" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B37" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B38" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B39" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B40" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>452</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B42" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>450</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B44" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B45" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B46" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B47" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B48" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C49" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B50" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B51" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B52" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B53" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B54" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B55" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B56" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B57" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C59" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B60" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B61" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B62" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B63" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B64" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B65" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B66" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B67" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B68" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B69" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B70" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B71" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>453</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B73" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B74" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B75" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B76" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B77" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B78" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B79" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>73</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B80" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B81" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B82" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>454</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B84" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B85" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>497</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B87" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>79</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B88" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B89" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>81</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B90" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B91" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B92" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>456</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B94" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>85</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B95" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B96" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>87</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B97" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B98" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>89</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B99" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B100" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>91</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B101" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B102" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>93</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B103" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B104" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B105" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B106" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>97</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B107" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B108" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>99</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B109" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B110" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>101</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B111" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>502</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B113" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>103</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B114" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B115" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>105</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B116" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B117" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>107</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B118" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B119" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>109</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B120" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B121" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>111</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B122" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B123" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>113</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B124" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B125" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>115</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B126" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B127" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>117</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B128" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B129" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>119</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B130" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B131" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>121</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B132" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B133" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>123</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B134" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>459</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B136" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>473</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>486</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>125</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B139" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B140" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B141" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>462</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="B143" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B144" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>460</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B146" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B147" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B148" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B149" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B150" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B151" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>461</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B153" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B154" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>465</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B156" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B157" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>451</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>468</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>472</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B161" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B162" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B163" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B164" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B165" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B166" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>455</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>470</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>469</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B170" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>466</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B172" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B173" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B174" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B175" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B176" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B177" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B178" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>463</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B180" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B181" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>467</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B183" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B184" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>471</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B186" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B187" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>464</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="B189" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B190" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B191" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B192" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="B193" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B194" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B195" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B196" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B197" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B198" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B199" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B200" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B201" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B202" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>475</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B204" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B205" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B206" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B207" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B208" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>501</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B210" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B211" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B212" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B213" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B214" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B215" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B216" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B217" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B218" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B219" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B220" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B221" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B222" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="B223" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="B224" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="B225" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="B226" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="B227" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="B228" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="B229" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="B230" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="B231" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="B232" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="B233" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="B234" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="B235" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="B236" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="B237" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B238" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="B239" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="B240" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="B241" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="B242" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="B243" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="B244" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="B245" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="B246" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>476</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="B248" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="B249" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="B250" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="B251" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>479</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="B253" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="B254" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>478</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="B256" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="B257" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="B258" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="B259" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="B260" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="B261" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="B262" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="B263" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="B264" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+      <c r="B265" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+      <c r="B266" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="B267" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+      <c r="B268" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+      <c r="B269" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="B270" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="B271" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+      <c r="B272" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="B273" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="B274" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>477</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+      <c r="B276" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="B277" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="B278" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="B279" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="B280" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>480</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="B282" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+      <c r="B283" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+      <c r="B284" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="B285" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="B286" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+      <c r="B287" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+      <c r="B288" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="B289" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="B290" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+      <c r="B291" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>457</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="B293" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="B294" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+      <c r="B295" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+      <c r="B296" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+      <c r="B297" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+      <c r="B298" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="B299" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="B300" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>481</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="B302" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="B303" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="B304" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="B305" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+      <c r="B306" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+      <c r="B307" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="B308" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="B309" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>482</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="B311" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="B312" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="B313" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="B314" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="B315" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+      <c r="B316" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="B317" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+      <c r="B318" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+      <c r="B319" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+      <c r="B320" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+      <c r="B321" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="B322" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="B323" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>484</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+      <c r="B325" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+      <c r="B326" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="B327" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="B328" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="B329" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="B330" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="B331" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+      <c r="B332" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="B333" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+      <c r="B334" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+      <c r="B335" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="B336" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="B337" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="B338" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="B339" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+      <c r="B340" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+      <c r="B341" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="B342" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="B343" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="B344" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="B345" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="B346" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+      <c r="B347" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+      <c r="B348" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+      <c r="B349" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+      <c r="B350" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+      <c r="B351" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+      <c r="B352" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>485</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+      <c r="B354" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+      <c r="B355" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+      <c r="B356" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+      <c r="B357" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+      <c r="B358" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+      <c r="B359" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+      <c r="B360" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+      <c r="B361" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+      <c r="B362" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+      <c r="B363" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+      <c r="B364" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+      <c r="B365" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+      <c r="B366" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+      <c r="B367" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+      <c r="B368" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+      <c r="B369" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+      <c r="B370" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+      <c r="B371" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+      <c r="B372" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+      <c r="B373" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+      <c r="B374" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+      <c r="B375" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+      <c r="B376" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+      <c r="B377" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+      <c r="B378" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+      <c r="B379" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+      <c r="B380" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+      <c r="B381" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+      <c r="B382" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+      <c r="B383" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+      <c r="B384" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+      <c r="B385" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+      <c r="B386" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+      <c r="B387" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>489</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+      <c r="B389" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+      <c r="B390" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="B391" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+      <c r="B392" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+      <c r="B393" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+      <c r="B394" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="B395" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+      <c r="B396" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>488</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+      <c r="B398" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+      <c r="B399" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+      <c r="B400" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+      <c r="B401" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+      <c r="B402" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+      <c r="B403" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+      <c r="B404" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+      <c r="B405" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+      <c r="B406" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+      <c r="B407" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+      <c r="B408" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+      <c r="B409" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+      <c r="B410" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+      <c r="B411" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+      <c r="B412" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+      <c r="B413" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+      <c r="B414" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>487</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="B416" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+      <c r="B417" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+      <c r="B418" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+      <c r="B419" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+      <c r="B420" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+      <c r="B421" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+      <c r="B422" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+      <c r="B423" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+      <c r="B424" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>499</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+      <c r="B426" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+      <c r="B427" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>498</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+      <c r="B429" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+      <c r="B430" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+      <c r="B431" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+      <c r="B432" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+      <c r="B433" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+      <c r="B434" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+      <c r="B435" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+      <c r="B436" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+      <c r="B437" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+      <c r="B438" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+      <c r="B439" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+      <c r="B440" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+      <c r="B441" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+      <c r="B442" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+      <c r="B443" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+      <c r="B444" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+      <c r="B445" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>491</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>405</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>490</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+      <c r="B449" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+      <c r="B450" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+      <c r="B451" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+      <c r="B452" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+      <c r="B453" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>492</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+      <c r="B455" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+      <c r="B456" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+      <c r="B457" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+      <c r="B458" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+      <c r="B459" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+      <c r="B460" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+      <c r="B461" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+      <c r="B462" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+      <c r="B463" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+      <c r="B464" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+      <c r="B465" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+      <c r="B466" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>483</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+      <c r="B468" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+      <c r="B469" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+      <c r="B470" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+      <c r="B471" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+      <c r="B472" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+      <c r="B473" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>493</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+      <c r="B475" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+      <c r="B476" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+      <c r="B477" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>496</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+      <c r="B479" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+      <c r="B480" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+      <c r="B481" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+      <c r="B482" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>494</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>495</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+      <c r="B485" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+      <c r="B486" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+      <c r="B487" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>500</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+      <c r="B489" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+      <c r="B490" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+      <c r="B491" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+      <c r="B492" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+      <c r="B493" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+      <c r="B494" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+      <c r="B495" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+      <c r="B496" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+      <c r="B497" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+      <c r="B498" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+      <c r="B499" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+      <c r="B500" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+      <c r="B501" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
-        <v>521</v>
+      <c r="B502" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A502">
+    <sortCondition ref="A2:A502"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>